--- a/data/all_together_2nd.xlsx
+++ b/data/all_together_2nd.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\NWTSHSUSV03V\Redirect$\nguyenh1\Documents\CoffeeClub\2nd-Iteration\Numeric\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27629"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
     <sheet name="Totals" sheetId="2" r:id="rId2"/>
+    <sheet name="Mapping" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="72">
   <si>
     <t>1. https://userfiles-fos.s3.amazonaws.com/1817115/images/IMG_20180619_1012386.jpg</t>
   </si>
@@ -194,24 +195,6 @@
   </si>
   <si>
     <t>Ouroboros Wholefoods Cafe | 118 Devonshire Street, Surry Hills NSW 2010</t>
-  </si>
-  <si>
-    <t>Ouroboros Wholefoods Cafe | 118 Devonshire Street, Surry Hills NSW 2011</t>
-  </si>
-  <si>
-    <t>Ouroboros Wholefoods Cafe | 118 Devonshire Street, Surry Hills NSW 2012</t>
-  </si>
-  <si>
-    <t>Ouroboros Wholefoods Cafe | 118 Devonshire Street, Surry Hills NSW 2013</t>
-  </si>
-  <si>
-    <t>Ouroboros Wholefoods Cafe | 118 Devonshire Street, Surry Hills NSW 2014</t>
-  </si>
-  <si>
-    <t>Ouroboros Wholefoods Cafe | 118 Devonshire Street, Surry Hills NSW 2015</t>
-  </si>
-  <si>
-    <t>Ouroboros Wholefoods Cafe | 118 Devonshire Street, Surry Hills NSW 2016</t>
   </si>
   <si>
     <t>The seating inside is quite good. Opening hours is until 4PM.</t>
@@ -263,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -282,6 +265,18 @@
     <font>
       <b/>
       <sz val="16"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -322,8 +317,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -337,7 +336,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,7 +434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,21 +619,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF87CEFA"/>
   </sheetPr>
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="39.1640625" customWidth="1"/>
+    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -760,8 +766,8 @@
       <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="F3">
-        <v>2</v>
+      <c r="F3" t="s">
+        <v>40</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -807,8 +813,8 @@
       <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="F4" t="s">
+        <v>41</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -854,8 +860,8 @@
       <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="F5">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>39</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -901,8 +907,8 @@
       <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6">
-        <v>3</v>
+      <c r="F6" t="s">
+        <v>41</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -948,8 +954,8 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7">
-        <v>4</v>
+      <c r="F7" t="s">
+        <v>42</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -995,8 +1001,8 @@
       <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="F8">
-        <v>2</v>
+      <c r="F8" t="s">
+        <v>40</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -1042,8 +1048,8 @@
       <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="F9">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>39</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1089,8 +1095,8 @@
       <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="F10">
-        <v>3</v>
+      <c r="F10" t="s">
+        <v>41</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -1136,8 +1142,8 @@
       <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="F11">
-        <v>3</v>
+      <c r="F11" t="s">
+        <v>41</v>
       </c>
       <c r="G11">
         <v>8</v>
@@ -1183,8 +1189,8 @@
       <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12">
-        <v>2</v>
+      <c r="F12" t="s">
+        <v>40</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1230,8 +1236,8 @@
       <c r="E13" t="s">
         <v>35</v>
       </c>
-      <c r="F13">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>39</v>
       </c>
       <c r="G13">
         <v>8</v>
@@ -1277,8 +1283,8 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="F14">
-        <v>3</v>
+      <c r="F14" t="s">
+        <v>41</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1324,8 +1330,8 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15">
-        <v>2</v>
+      <c r="F15" t="s">
+        <v>40</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -1371,8 +1377,8 @@
       <c r="E16" t="s">
         <v>31</v>
       </c>
-      <c r="F16">
-        <v>1</v>
+      <c r="F16" t="s">
+        <v>39</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -1418,8 +1424,8 @@
       <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="F17">
-        <v>3</v>
+      <c r="F17" t="s">
+        <v>41</v>
       </c>
       <c r="G17">
         <v>9</v>
@@ -1465,8 +1471,8 @@
       <c r="E18" t="s">
         <v>36</v>
       </c>
-      <c r="F18">
-        <v>3</v>
+      <c r="F18" t="s">
+        <v>41</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -1512,8 +1518,8 @@
       <c r="E19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="7">
-        <v>2</v>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G19" s="7">
         <v>8</v>
@@ -1566,8 +1572,8 @@
       <c r="E20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="7">
-        <v>5</v>
+      <c r="F20" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="G20" s="7">
         <v>8</v>
@@ -1620,8 +1626,8 @@
       <c r="E21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="7">
-        <v>5</v>
+      <c r="F21" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="G21" s="7">
         <v>7</v>
@@ -1674,8 +1680,8 @@
       <c r="E22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="7">
-        <v>3</v>
+      <c r="F22" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G22" s="7">
         <v>7</v>
@@ -1730,8 +1736,8 @@
       <c r="E23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="7">
-        <v>1</v>
+      <c r="F23" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G23" s="7">
         <v>7</v>
@@ -1784,8 +1790,8 @@
       <c r="E24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="7">
-        <v>4</v>
+      <c r="F24" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="G24" s="7">
         <v>6</v>
@@ -1838,8 +1844,8 @@
       <c r="E25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="7">
-        <v>2</v>
+      <c r="F25" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G25" s="7">
         <v>8</v>
@@ -1887,13 +1893,13 @@
     </row>
     <row r="26" spans="4:25">
       <c r="D26" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="7">
-        <v>1</v>
+      <c r="F26" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G26" s="7">
         <v>5</v>
@@ -1941,38 +1947,38 @@
     </row>
     <row r="27" spans="4:25">
       <c r="D27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G27" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H27" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I27" s="7">
         <v>7</v>
       </c>
       <c r="J27" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K27" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L27" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="8">
-        <v>43276.026388888902</v>
+        <v>43276.025694444397</v>
       </c>
       <c r="P27" s="7">
         <v>0</v>
@@ -1995,38 +2001,40 @@
     </row>
     <row r="28" spans="4:25">
       <c r="D28" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="7">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G28" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I28" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J28" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K28" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L28" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
       </c>
-      <c r="N28" s="7"/>
+      <c r="N28" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="O28" s="8">
-        <v>43276.025694444397</v>
+        <v>43276.027777777803</v>
       </c>
       <c r="P28" s="7">
         <v>0</v>
@@ -2049,40 +2057,38 @@
     </row>
     <row r="29" spans="4:25">
       <c r="D29" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="7">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="G29" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
       </c>
       <c r="I29" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K29" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L29" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
       </c>
-      <c r="N29" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="N29" s="7"/>
       <c r="O29" s="8">
-        <v>43276.027777777803</v>
+        <v>43276.030555555597</v>
       </c>
       <c r="P29" s="7">
         <v>0</v>
@@ -2105,16 +2111,16 @@
     </row>
     <row r="30" spans="4:25">
       <c r="D30" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="7">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="G30" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -2129,14 +2135,14 @@
         <v>8</v>
       </c>
       <c r="L30" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="8">
-        <v>43276.030555555597</v>
+        <v>43276.050694444399</v>
       </c>
       <c r="P30" s="7">
         <v>0</v>
@@ -2158,95 +2164,88 @@
       <c r="Y30" s="7"/>
     </row>
     <row r="31" spans="4:25">
-      <c r="D31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="7">
-        <v>4</v>
-      </c>
-      <c r="G31" s="7">
-        <v>7</v>
-      </c>
-      <c r="H31" s="7">
-        <v>7</v>
-      </c>
-      <c r="I31" s="7">
-        <v>7</v>
-      </c>
-      <c r="J31" s="7">
-        <v>8</v>
-      </c>
-      <c r="K31" s="7">
-        <v>8</v>
-      </c>
-      <c r="L31" s="7">
-        <v>7</v>
-      </c>
-      <c r="M31" s="7">
-        <v>8</v>
-      </c>
-      <c r="N31" s="7"/>
-      <c r="O31" s="8">
-        <v>43276.050694444399</v>
-      </c>
-      <c r="P31" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="7"/>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>9</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31" t="s">
+        <v>58</v>
+      </c>
+      <c r="O31" s="6">
+        <v>43277.21597222222</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>28</v>
+      </c>
+      <c r="R31" t="s">
+        <v>29</v>
+      </c>
+      <c r="X31" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="4:25">
-      <c r="D32" t="s">
-        <v>65</v>
+      <c r="D32" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>43</v>
       </c>
       <c r="G32">
         <v>8</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M32">
-        <v>10</v>
-      </c>
-      <c r="N32" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="O32" s="6">
-        <v>43277.21597222222</v>
+        <v>43277.216666666667</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2263,25 +2262,25 @@
     </row>
     <row r="33" spans="4:25">
       <c r="D33" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
       </c>
       <c r="G33">
         <v>8</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -2290,10 +2289,10 @@
         <v>7</v>
       </c>
       <c r="M33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O33" s="6">
-        <v>43277.216666666667</v>
+        <v>43277.219444444447</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2310,37 +2309,37 @@
     </row>
     <row r="34" spans="4:25">
       <c r="D34" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>39</v>
       </c>
       <c r="G34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I34">
         <v>7</v>
       </c>
       <c r="J34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K34">
         <v>7</v>
       </c>
       <c r="L34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O34" s="6">
-        <v>43277.219444444447</v>
+        <v>43277.232638888891</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2357,37 +2356,37 @@
     </row>
     <row r="35" spans="4:25">
       <c r="D35" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>41</v>
       </c>
       <c r="G35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J35">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M35">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O35" s="6">
-        <v>43277.232638888891</v>
+        <v>43277.23541666667</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2404,37 +2403,37 @@
     </row>
     <row r="36" spans="4:25">
       <c r="D36" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>39</v>
       </c>
       <c r="G36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L36">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O36" s="6">
-        <v>43277.23541666667</v>
+        <v>43277.252083333333</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -2451,37 +2450,35 @@
     </row>
     <row r="37" spans="4:25">
       <c r="D37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" t="s">
+        <v>40</v>
       </c>
       <c r="G37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J37">
         <v>7</v>
       </c>
       <c r="K37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O37" s="6">
-        <v>43277.252083333333</v>
+        <v>43277.279861111114</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -2497,84 +2494,93 @@
       </c>
     </row>
     <row r="38" spans="4:25">
-      <c r="D38" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>8</v>
-      </c>
-      <c r="H38">
-        <v>8</v>
-      </c>
-      <c r="I38">
-        <v>8</v>
-      </c>
-      <c r="J38">
-        <v>7</v>
-      </c>
-      <c r="K38">
-        <v>6</v>
-      </c>
-      <c r="L38">
-        <v>8</v>
-      </c>
-      <c r="M38">
-        <v>8</v>
-      </c>
-      <c r="O38" s="6">
-        <v>43277.279861111114</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>28</v>
-      </c>
-      <c r="R38" t="s">
-        <v>29</v>
-      </c>
-      <c r="X38" t="b">
-        <v>1</v>
-      </c>
+      <c r="D38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="7">
+        <v>9</v>
+      </c>
+      <c r="H38" s="7">
+        <v>10</v>
+      </c>
+      <c r="I38" s="7">
+        <v>10</v>
+      </c>
+      <c r="J38" s="7">
+        <v>8</v>
+      </c>
+      <c r="K38" s="7">
+        <v>8</v>
+      </c>
+      <c r="L38" s="7">
+        <v>10</v>
+      </c>
+      <c r="M38" s="7">
+        <v>9</v>
+      </c>
+      <c r="N38" s="7"/>
+      <c r="O38" s="8">
+        <v>43279.015277777798</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="7"/>
     </row>
     <row r="39" spans="4:25">
-      <c r="D39" t="s">
-        <v>67</v>
+      <c r="D39" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="7">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="G39" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H39" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I39" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J39" s="7">
         <v>8</v>
       </c>
       <c r="K39" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L39" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M39" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="8">
-        <v>43279.015277777798</v>
+        <v>43279.015972222202</v>
       </c>
       <c r="P39" s="7">
         <v>0</v>
@@ -2597,16 +2603,16 @@
     </row>
     <row r="40" spans="4:25">
       <c r="D40" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="7">
-        <v>5</v>
+        <v>31</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G40" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H40" s="7">
         <v>7</v>
@@ -2615,20 +2621,20 @@
         <v>7</v>
       </c>
       <c r="J40" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K40" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L40" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M40" s="7">
         <v>8</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="8">
-        <v>43279.015972222202</v>
+        <v>43279.018750000003</v>
       </c>
       <c r="P40" s="7">
         <v>0</v>
@@ -2651,16 +2657,16 @@
     </row>
     <row r="41" spans="4:25">
       <c r="D41" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="7">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G41" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -2682,7 +2688,7 @@
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="8">
-        <v>43279.018750000003</v>
+        <v>43279.020833333299</v>
       </c>
       <c r="P41" s="7">
         <v>0</v>
@@ -2705,38 +2711,38 @@
     </row>
     <row r="42" spans="4:25">
       <c r="D42" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="7">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G42" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H42" s="7">
         <v>7</v>
       </c>
       <c r="I42" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J42" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K42" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L42" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M42" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="8">
-        <v>43279.020833333299</v>
+        <v>43279.0222222222</v>
       </c>
       <c r="P42" s="7">
         <v>0</v>
@@ -2759,38 +2765,38 @@
     </row>
     <row r="43" spans="4:25">
       <c r="D43" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="7">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G43" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H43" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I43" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J43" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K43" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L43" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M43" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N43" s="7"/>
       <c r="O43" s="8">
-        <v>43279.0222222222</v>
+        <v>43279.045138888898</v>
       </c>
       <c r="P43" s="7">
         <v>0</v>
@@ -2813,16 +2819,16 @@
     </row>
     <row r="44" spans="4:25">
       <c r="D44" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" s="7">
-        <v>3</v>
+        <v>60</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G44" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H44" s="7">
         <v>8</v>
@@ -2837,14 +2843,14 @@
         <v>8</v>
       </c>
       <c r="L44" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M44" s="7">
         <v>8</v>
       </c>
       <c r="N44" s="7"/>
       <c r="O44" s="8">
-        <v>43279.045138888898</v>
+        <v>43279.114583333299</v>
       </c>
       <c r="P44" s="7">
         <v>0</v>
@@ -2867,16 +2873,14 @@
     </row>
     <row r="45" spans="4:25">
       <c r="D45" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="7">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G45" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H45" s="7">
         <v>8</v>
@@ -2885,20 +2889,20 @@
         <v>8</v>
       </c>
       <c r="J45" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K45" s="7">
         <v>8</v>
       </c>
       <c r="L45" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M45" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="8">
-        <v>43279.114583333299</v>
+        <v>43279.168749999997</v>
       </c>
       <c r="P45" s="7">
         <v>0</v>
@@ -2921,36 +2925,40 @@
     </row>
     <row r="46" spans="4:25">
       <c r="D46" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="7">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G46" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H46" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I46" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J46" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K46" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L46" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M46" s="7">
-        <v>7</v>
-      </c>
-      <c r="N46" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="O46" s="8">
-        <v>43279.168749999997</v>
+        <v>43283.1340277778</v>
       </c>
       <c r="P46" s="7">
         <v>0</v>
@@ -2973,40 +2981,38 @@
     </row>
     <row r="47" spans="4:25">
       <c r="D47" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="7">
+        <v>35</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="7">
+        <v>9</v>
+      </c>
+      <c r="H47" s="7">
+        <v>8</v>
+      </c>
+      <c r="I47" s="7">
+        <v>8</v>
+      </c>
+      <c r="J47" s="7">
+        <v>9</v>
+      </c>
+      <c r="K47" s="7">
         <v>2</v>
       </c>
-      <c r="G47" s="7">
-        <v>9</v>
-      </c>
-      <c r="H47" s="7">
-        <v>9</v>
-      </c>
-      <c r="I47" s="7">
-        <v>9</v>
-      </c>
-      <c r="J47" s="7">
-        <v>9</v>
-      </c>
-      <c r="K47" s="7">
-        <v>1</v>
-      </c>
       <c r="L47" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M47" s="7">
-        <v>4</v>
-      </c>
-      <c r="N47" s="7" t="s">
-        <v>68</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="N47" s="7"/>
       <c r="O47" s="8">
-        <v>43283.1340277778</v>
+        <v>43283.150694444397</v>
       </c>
       <c r="P47" s="7">
         <v>0</v>
@@ -3029,13 +3035,13 @@
     </row>
     <row r="48" spans="4:25">
       <c r="D48" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="7">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G48" s="7">
         <v>9</v>
@@ -3047,20 +3053,20 @@
         <v>8</v>
       </c>
       <c r="J48" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K48" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L48" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M48" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="8">
-        <v>43283.150694444397</v>
+        <v>43283.154861111099</v>
       </c>
       <c r="P48" s="7">
         <v>0</v>
@@ -3083,38 +3089,38 @@
     </row>
     <row r="49" spans="4:25">
       <c r="D49" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" s="7">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G49" s="7">
         <v>9</v>
       </c>
       <c r="H49" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I49" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J49" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K49" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L49" s="7">
         <v>9</v>
       </c>
       <c r="M49" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N49" s="7"/>
       <c r="O49" s="8">
-        <v>43283.154861111099</v>
+        <v>43283.184027777803</v>
       </c>
       <c r="P49" s="7">
         <v>0</v>
@@ -3137,38 +3143,38 @@
     </row>
     <row r="50" spans="4:25">
       <c r="D50" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="7">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="G50" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H50" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I50" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J50" s="7">
         <v>9</v>
       </c>
       <c r="K50" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L50" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M50" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N50" s="7"/>
       <c r="O50" s="8">
-        <v>43283.184027777803</v>
+        <v>43283.181250000001</v>
       </c>
       <c r="P50" s="7">
         <v>0</v>
@@ -3191,38 +3197,38 @@
     </row>
     <row r="51" spans="4:25">
       <c r="D51" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="7">
+        <v>32</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="7">
+        <v>7</v>
+      </c>
+      <c r="H51" s="7">
+        <v>7</v>
+      </c>
+      <c r="I51" s="7">
+        <v>8</v>
+      </c>
+      <c r="J51" s="7">
+        <v>7</v>
+      </c>
+      <c r="K51" s="7">
         <v>5</v>
       </c>
-      <c r="G51" s="7">
-        <v>7</v>
-      </c>
-      <c r="H51" s="7">
-        <v>7</v>
-      </c>
-      <c r="I51" s="7">
-        <v>8</v>
-      </c>
-      <c r="J51" s="7">
-        <v>9</v>
-      </c>
-      <c r="K51" s="7">
-        <v>1</v>
-      </c>
       <c r="L51" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M51" s="7">
         <v>7</v>
       </c>
       <c r="N51" s="7"/>
       <c r="O51" s="8">
-        <v>43283.181250000001</v>
+        <v>43283.137499999997</v>
       </c>
       <c r="P51" s="7">
         <v>0</v>
@@ -3245,22 +3251,22 @@
     </row>
     <row r="52" spans="4:25">
       <c r="D52" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="G52" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H52" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I52" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J52" s="7">
         <v>7</v>
@@ -3269,14 +3275,14 @@
         <v>5</v>
       </c>
       <c r="L52" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M52" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N52" s="7"/>
       <c r="O52" s="8">
-        <v>43283.137499999997</v>
+        <v>43283.223611111098</v>
       </c>
       <c r="P52" s="7">
         <v>0</v>
@@ -3298,39 +3304,39 @@
       <c r="Y52" s="7"/>
     </row>
     <row r="53" spans="4:25">
-      <c r="D53" s="7" t="s">
-        <v>69</v>
+      <c r="D53" t="s">
+        <v>66</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F53" s="7">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G53" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H53" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I53" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J53" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K53" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L53" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M53" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N53" s="7"/>
       <c r="O53" s="8">
-        <v>43283.223611111098</v>
+        <v>43285.042361111096</v>
       </c>
       <c r="P53" s="7">
         <v>0</v>
@@ -3352,39 +3358,39 @@
       <c r="Y53" s="7"/>
     </row>
     <row r="54" spans="4:25">
-      <c r="D54" t="s">
-        <v>72</v>
+      <c r="D54" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="7">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G54" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H54" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I54" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J54" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K54" s="7">
         <v>8</v>
       </c>
       <c r="L54" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M54" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N54" s="7"/>
       <c r="O54" s="8">
-        <v>43285.042361111096</v>
+        <v>43285.045833333301</v>
       </c>
       <c r="P54" s="7">
         <v>0</v>
@@ -3407,25 +3413,25 @@
     </row>
     <row r="55" spans="4:25">
       <c r="D55" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="7">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="G55" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H55" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I55" s="7">
         <v>7</v>
       </c>
       <c r="J55" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K55" s="7">
         <v>8</v>
@@ -3434,11 +3440,11 @@
         <v>7</v>
       </c>
       <c r="M55" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N55" s="7"/>
       <c r="O55" s="8">
-        <v>43285.045833333301</v>
+        <v>43285.047222222202</v>
       </c>
       <c r="P55" s="7">
         <v>0</v>
@@ -3461,38 +3467,40 @@
     </row>
     <row r="56" spans="4:25">
       <c r="D56" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" s="7">
+        <v>37</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="7">
+        <v>9</v>
+      </c>
+      <c r="H56" s="7">
+        <v>9</v>
+      </c>
+      <c r="I56" s="7">
+        <v>9</v>
+      </c>
+      <c r="J56" s="7">
+        <v>9</v>
+      </c>
+      <c r="K56" s="7">
+        <v>8</v>
+      </c>
+      <c r="L56" s="7">
+        <v>1</v>
+      </c>
+      <c r="M56" s="7">
         <v>5</v>
       </c>
-      <c r="G56" s="7">
-        <v>8</v>
-      </c>
-      <c r="H56" s="7">
-        <v>9</v>
-      </c>
-      <c r="I56" s="7">
-        <v>7</v>
-      </c>
-      <c r="J56" s="7">
-        <v>8</v>
-      </c>
-      <c r="K56" s="7">
-        <v>8</v>
-      </c>
-      <c r="L56" s="7">
-        <v>7</v>
-      </c>
-      <c r="M56" s="7">
-        <v>9</v>
-      </c>
-      <c r="N56" s="7"/>
+      <c r="N56" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="O56" s="8">
-        <v>43285.047222222202</v>
+        <v>43285.124305555597</v>
       </c>
       <c r="P56" s="7">
         <v>0</v>
@@ -3515,40 +3523,38 @@
     </row>
     <row r="57" spans="4:25">
       <c r="D57" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="7">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G57" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H57" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I57" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J57" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K57" s="7">
         <v>8</v>
       </c>
       <c r="L57" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M57" s="7">
-        <v>5</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>70</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="N57" s="7"/>
       <c r="O57" s="8">
-        <v>43285.124305555597</v>
+        <v>43285.052083333299</v>
       </c>
       <c r="P57" s="7">
         <v>0</v>
@@ -3571,38 +3577,40 @@
     </row>
     <row r="58" spans="4:25">
       <c r="D58" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="G58" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H58" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I58" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J58" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K58" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L58" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M58" s="7">
-        <v>8</v>
-      </c>
-      <c r="N58" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="O58" s="8">
-        <v>43285.052083333299</v>
+        <v>43285.301388888904</v>
       </c>
       <c r="P58" s="7">
         <v>0</v>
@@ -3624,41 +3632,41 @@
       <c r="Y58" s="7"/>
     </row>
     <row r="59" spans="4:25">
-      <c r="D59" s="7" t="s">
-        <v>72</v>
+      <c r="D59" t="s">
+        <v>69</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="7">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G59" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H59" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I59" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J59" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K59" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L59" s="7">
         <v>1</v>
       </c>
       <c r="M59" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O59" s="8">
-        <v>43285.301388888904</v>
+        <v>43297.026388888902</v>
       </c>
       <c r="P59" s="7">
         <v>0</v>
@@ -3680,41 +3688,39 @@
       <c r="Y59" s="7"/>
     </row>
     <row r="60" spans="4:25">
-      <c r="D60" t="s">
-        <v>75</v>
+      <c r="D60" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" s="7">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="G60" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H60" s="7">
         <v>7</v>
       </c>
       <c r="I60" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J60" s="7">
         <v>9</v>
       </c>
       <c r="K60" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L60" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M60" s="7">
-        <v>6</v>
-      </c>
-      <c r="N60" s="7" t="s">
-        <v>73</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="N60" s="7"/>
       <c r="O60" s="8">
-        <v>43297.026388888902</v>
+        <v>43297.027777777803</v>
       </c>
       <c r="P60" s="7">
         <v>0</v>
@@ -3737,34 +3743,34 @@
     </row>
     <row r="61" spans="4:25">
       <c r="D61" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="7">
+        <v>32</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="7">
+        <v>7</v>
+      </c>
+      <c r="H61" s="7">
+        <v>7</v>
+      </c>
+      <c r="I61" s="7">
         <v>5</v>
       </c>
-      <c r="G61" s="7">
-        <v>8</v>
-      </c>
-      <c r="H61" s="7">
-        <v>7</v>
-      </c>
-      <c r="I61" s="7">
-        <v>7</v>
-      </c>
       <c r="J61" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K61" s="7">
         <v>7</v>
       </c>
       <c r="L61" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M61" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N61" s="7"/>
       <c r="O61" s="8">
@@ -3791,19 +3797,19 @@
     </row>
     <row r="62" spans="4:25">
       <c r="D62" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F62" s="7">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G62" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H62" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I62" s="7">
         <v>5</v>
@@ -3812,17 +3818,17 @@
         <v>6</v>
       </c>
       <c r="K62" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L62" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M62" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N62" s="7"/>
       <c r="O62" s="8">
-        <v>43297.027777777803</v>
+        <v>43297.029166666704</v>
       </c>
       <c r="P62" s="7">
         <v>0</v>
@@ -3845,36 +3851,38 @@
     </row>
     <row r="63" spans="4:25">
       <c r="D63" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F63" s="7">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G63" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H63" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I63" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J63" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K63" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L63" s="7">
         <v>1</v>
       </c>
       <c r="M63" s="7">
-        <v>4</v>
-      </c>
-      <c r="N63" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="O63" s="8">
         <v>43297.029166666704</v>
       </c>
@@ -3899,40 +3907,38 @@
     </row>
     <row r="64" spans="4:25">
       <c r="D64" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F64" s="7">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G64" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H64" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I64" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J64" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K64" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L64" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M64" s="7">
-        <v>1</v>
-      </c>
-      <c r="N64" s="7" t="s">
-        <v>74</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N64" s="7"/>
       <c r="O64" s="8">
-        <v>43297.029166666704</v>
+        <v>43297.034027777801</v>
       </c>
       <c r="P64" s="7">
         <v>0</v>
@@ -3955,13 +3961,11 @@
     </row>
     <row r="65" spans="4:25">
       <c r="D65" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F65" s="7">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G65" s="7">
         <v>7</v>
@@ -3970,23 +3974,23 @@
         <v>7</v>
       </c>
       <c r="I65" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J65" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K65" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L65" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M65" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N65" s="7"/>
       <c r="O65" s="8">
-        <v>43297.034027777801</v>
+        <v>43297.129861111098</v>
       </c>
       <c r="P65" s="7">
         <v>0</v>
@@ -4008,39 +4012,41 @@
       <c r="Y65" s="7"/>
     </row>
     <row r="66" spans="4:25">
-      <c r="D66" s="7" t="s">
-        <v>75</v>
+      <c r="D66" t="s">
+        <v>71</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" s="7">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G66" s="7">
         <v>7</v>
       </c>
       <c r="H66" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I66" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J66" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K66" s="7">
+        <v>1</v>
+      </c>
+      <c r="L66" s="7">
+        <v>8</v>
+      </c>
+      <c r="M66" s="7">
         <v>5</v>
       </c>
-      <c r="L66" s="7">
-        <v>6</v>
-      </c>
-      <c r="M66" s="7">
-        <v>6</v>
-      </c>
-      <c r="N66" s="7"/>
+      <c r="N66" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="O66" s="8">
-        <v>43297.034027777801</v>
+        <v>43298.239583333299</v>
       </c>
       <c r="P66" s="7">
         <v>0</v>
@@ -4063,36 +4069,38 @@
     </row>
     <row r="67" spans="4:25">
       <c r="D67" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="7">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G67" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H67" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I67" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J67" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K67" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L67" s="7">
         <v>8</v>
       </c>
       <c r="M67" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N67" s="7"/>
       <c r="O67" s="8">
-        <v>43297.129861111098</v>
+        <v>43298.247916666704</v>
       </c>
       <c r="P67" s="7">
         <v>0</v>
@@ -4114,14 +4122,14 @@
       <c r="Y67" s="7"/>
     </row>
     <row r="68" spans="4:25">
-      <c r="D68" t="s">
-        <v>77</v>
+      <c r="D68" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="7">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G68" s="7">
         <v>7</v>
@@ -4130,25 +4138,23 @@
         <v>9</v>
       </c>
       <c r="I68" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J68" s="7">
         <v>10</v>
       </c>
       <c r="K68" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L68" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M68" s="7">
-        <v>5</v>
-      </c>
-      <c r="N68" s="7" t="s">
-        <v>76</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="N68" s="7"/>
       <c r="O68" s="8">
-        <v>43298.239583333299</v>
+        <v>43298.247916666704</v>
       </c>
       <c r="P68" s="7">
         <v>0</v>
@@ -4171,38 +4177,38 @@
     </row>
     <row r="69" spans="4:25">
       <c r="D69" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F69" s="7">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G69" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H69" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I69" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J69" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K69" s="7">
         <v>5</v>
       </c>
       <c r="L69" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M69" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N69" s="7"/>
       <c r="O69" s="8">
-        <v>43298.247916666704</v>
+        <v>43298.249305555597</v>
       </c>
       <c r="P69" s="7">
         <v>0</v>
@@ -4225,38 +4231,38 @@
     </row>
     <row r="70" spans="4:25">
       <c r="D70" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F70" s="7">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G70" s="7">
         <v>7</v>
       </c>
       <c r="H70" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I70" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J70" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K70" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L70" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M70" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N70" s="7"/>
       <c r="O70" s="8">
-        <v>43298.247916666704</v>
+        <v>43298.249305555597</v>
       </c>
       <c r="P70" s="7">
         <v>0</v>
@@ -4279,31 +4285,29 @@
     </row>
     <row r="71" spans="4:25">
       <c r="D71" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" s="7">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G71" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H71" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I71" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J71" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K71" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L71" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M71" s="7">
         <v>7</v>
@@ -4333,38 +4337,38 @@
     </row>
     <row r="72" spans="4:25">
       <c r="D72" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F72" s="7">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G72" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H72" s="7">
         <v>8</v>
       </c>
       <c r="I72" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J72" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K72" s="7">
+        <v>6</v>
+      </c>
+      <c r="L72" s="7">
+        <v>7</v>
+      </c>
+      <c r="M72" s="7">
         <v>5</v>
-      </c>
-      <c r="L72" s="7">
-        <v>8</v>
-      </c>
-      <c r="M72" s="7">
-        <v>6</v>
       </c>
       <c r="N72" s="7"/>
       <c r="O72" s="8">
-        <v>43298.249305555597</v>
+        <v>43298.2590277778</v>
       </c>
       <c r="P72" s="7">
         <v>0</v>
@@ -4387,17 +4391,19 @@
     </row>
     <row r="73" spans="4:25">
       <c r="D73" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="7">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G73" s="7">
         <v>8</v>
       </c>
       <c r="H73" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I73" s="7">
         <v>8</v>
@@ -4406,7 +4412,7 @@
         <v>7</v>
       </c>
       <c r="K73" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L73" s="7">
         <v>8</v>
@@ -4416,7 +4422,7 @@
       </c>
       <c r="N73" s="7"/>
       <c r="O73" s="8">
-        <v>43298.249305555597</v>
+        <v>43298.310416666704</v>
       </c>
       <c r="P73" s="7">
         <v>0</v>
@@ -4437,134 +4443,32 @@
       </c>
       <c r="Y73" s="7"/>
     </row>
-    <row r="74" spans="4:25">
-      <c r="D74" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F74" s="7">
-        <v>1</v>
-      </c>
-      <c r="G74" s="7">
-        <v>6</v>
-      </c>
-      <c r="H74" s="7">
-        <v>8</v>
-      </c>
-      <c r="I74" s="7">
-        <v>7</v>
-      </c>
-      <c r="J74" s="7">
-        <v>7</v>
-      </c>
-      <c r="K74" s="7">
-        <v>6</v>
-      </c>
-      <c r="L74" s="7">
-        <v>7</v>
-      </c>
-      <c r="M74" s="7">
-        <v>5</v>
-      </c>
-      <c r="N74" s="7"/>
-      <c r="O74" s="8">
-        <v>43298.2590277778</v>
-      </c>
-      <c r="P74" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R74" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
-      <c r="W74" s="7"/>
-      <c r="X74" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y74" s="7"/>
-    </row>
-    <row r="75" spans="4:25">
-      <c r="D75" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F75" s="7">
-        <v>3</v>
-      </c>
-      <c r="G75" s="7">
-        <v>8</v>
-      </c>
-      <c r="H75" s="7">
-        <v>8</v>
-      </c>
-      <c r="I75" s="7">
-        <v>8</v>
-      </c>
-      <c r="J75" s="7">
-        <v>7</v>
-      </c>
-      <c r="K75" s="7">
-        <v>4</v>
-      </c>
-      <c r="L75" s="7">
-        <v>8</v>
-      </c>
-      <c r="M75" s="7">
-        <v>7</v>
-      </c>
-      <c r="N75" s="7"/>
-      <c r="O75" s="8">
-        <v>43298.310416666704</v>
-      </c>
-      <c r="P75" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="7"/>
-      <c r="W75" s="7"/>
-      <c r="X75" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y75" s="7"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21">
+    <row r="1" spans="1:11" ht="20">
       <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
@@ -4596,19 +4500,19 @@
       </c>
       <c r="B4">
         <f>COUNTIF('All Data'!F3:F12,"1")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f>COUNTIF('All Data'!F3:F12,"2")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f>COUNTIF('All Data'!F3:F12,"3")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f>COUNTIF('All Data'!F3:F12,"4")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f>COUNTIF('All Data'!F3:F12,"5")</f>
@@ -4619,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="21">
+    <row r="8" spans="1:11" ht="20">
       <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
@@ -4974,5 +4878,70 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>